--- a/example_data/clean_Guess_6532_part1_part2_2025-07-29_15h47.02.281.xlsx
+++ b/example_data/clean_Guess_6532_part1_part2_2025-07-29_15h47.02.281.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAB5A96-E272-42A6-A666-60DA39CC2A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578A509-2409-4FA6-9383-C026493715DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2B8C92D7-AE4E-488A-816D-DC0D911FDBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess_6532_part1_part2_2025-07-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="261">
   <si>
     <t>trial_type</t>
   </si>
@@ -1681,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF0159-EFB4-4608-B28F-6BEA232413EB}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5394,26 +5407,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J82">
-        <v>6532</v>
-      </c>
-      <c r="K82">
-        <v>2000</v>
-      </c>
-      <c r="L82" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
